--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2114815.924456219</v>
+        <v>-2117731.521548548</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10077562.50365403</v>
+        <v>10077562.50365404</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>241.4064161786966</v>
       </c>
       <c r="E2" t="n">
-        <v>226.6390806907212</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>1.941719304022119</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>131.6586392643247</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>211.3372881402535</v>
       </c>
       <c r="W5" t="n">
-        <v>5.459485109098727</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.30079766335502</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>155.8860385675338</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>379.5121916358067</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>159.575646390575</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>42.94681372917874</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>213.9154470216037</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>197.6600124601322</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>368.1940563011266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>107.2868848990388</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>255.8725668602206</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>87.21471514852709</v>
+        <v>78.68827782033961</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856559</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>105.1162657551305</v>
       </c>
       <c r="G19" t="n">
-        <v>39.52129633183122</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>125.2193560244677</v>
       </c>
       <c r="W22" t="n">
-        <v>281.6778446725264</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.85274231757869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0.6197054599889589</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2716,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261735</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545294</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,10 +3010,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1748.280186455193</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="C2" t="n">
-        <v>1379.317669514782</v>
+        <v>297.7878466473307</v>
       </c>
       <c r="D2" t="n">
-        <v>1021.051970908031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>792.1236065739693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>2134.880026519315</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y2" t="n">
-        <v>2134.880026519315</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,22 +4416,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545818</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545818</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545818</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545818</v>
+        <v>248.4507863814658</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="I4" t="n">
         <v>99.5995062532301</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>417.5768819848215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>417.5768819848215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>417.5768819848215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>417.5768819848215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>417.5768819848215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>417.5768819848215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.5768819848215</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1310.22335213854</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1956.251940936392</v>
       </c>
       <c r="W5" t="n">
-        <v>2460.428282439554</v>
+        <v>1956.251940936392</v>
       </c>
       <c r="X5" t="n">
-        <v>2086.962524178474</v>
+        <v>1582.786182675312</v>
       </c>
       <c r="Y5" t="n">
-        <v>1696.823192202662</v>
+        <v>1192.6468506995</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y7" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2304.755392256245</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2304.755392256245</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1973.692504912674</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.692504912674</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1600.226746651594</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.087414675782</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.5654064942403</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>402.6523129118472</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>402.6523129118472</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>233.6525126501796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942403</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942403</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942403</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942403</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942403</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5069,16 +5069,16 @@
         <v>4605.365889165442</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.709310922884</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.265981642434</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.203094298863</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X11" t="n">
         <v>3094.968680767669</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>1038.824731735125</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>930.454140928015</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>780.3375015156793</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>632.4244079332861</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>485.5344604353758</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>176.447548648385</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1958.672496643873</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.596282958599</v>
+        <v>1958.672496643873</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.911794752712</v>
+        <v>1958.672496643873</v>
       </c>
       <c r="W13" t="n">
-        <v>1156.454656510065</v>
+        <v>1669.255326606912</v>
       </c>
       <c r="X13" t="n">
-        <v>928.4651056120481</v>
+        <v>1441.265775708895</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.672526468518</v>
+        <v>1220.473196565365</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5267,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192579</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468465</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951539</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951539</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380863</v>
+        <v>1031.26032167505</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101794</v>
+        <v>862.324138747143</v>
       </c>
       <c r="D16" t="n">
-        <v>572.9069687101794</v>
+        <v>712.2074993348073</v>
       </c>
       <c r="E16" t="n">
-        <v>572.9069687101794</v>
+        <v>564.2944057524141</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611856</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611856</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.491616468326</v>
+        <v>1212.90878650529</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.95525898292</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>889.0190760550126</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277355</v>
+        <v>738.9024366426769</v>
       </c>
       <c r="E19" t="n">
-        <v>215.8238677453423</v>
+        <v>590.9893430602838</v>
       </c>
       <c r="F19" t="n">
-        <v>215.8238677453423</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5838,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,7 +6005,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>1166.195182806535</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D28" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,31 +6403,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,19 +6549,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191923</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349507</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349507</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989557</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,13 +6871,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -7026,16 +7026,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,10 +7260,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,10 +7351,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150024</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311325</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380726</v>
@@ -7813,7 +7813,7 @@
         <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>6.707523425575346e-12</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>113.2766254419864</v>
       </c>
       <c r="E2" t="n">
-        <v>155.2912893815406</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>9.267865429376208</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.5744878405662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.537044377341999</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>59.95993619958902</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>30.65043147637044</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>58.20633287440415</v>
+        <v>66.73277020259164</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780072</v>
       </c>
       <c r="G19" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>126.9182872993603</v>
       </c>
       <c r="W22" t="n">
-        <v>4.84515366406464</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.9792378643586</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>285.9032928766021</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1150427.392589245</v>
+        <v>1150427.392589244</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48735.31458994617</v>
+        <v>48735.31458994614</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982123</v>
@@ -26323,37 +26323,37 @@
         <v>60492.0471289592</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="G2" t="n">
         <v>60535.99497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="K2" t="n">
+        <v>61578.1327398212</v>
+      </c>
+      <c r="L2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="L2" t="n">
-        <v>61578.13273982126</v>
-      </c>
       <c r="M2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982123</v>
       </c>
     </row>
     <row r="3">
@@ -26375,16 +26375,16 @@
         <v>936391.4095185974</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.63761494999</v>
+        <v>7852.637614951069</v>
       </c>
       <c r="G3" t="n">
-        <v>8.839003839966609e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>195850.9371862247</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103327.7358282894</v>
+        <v>103327.7358282893</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26427,37 +26427,37 @@
         <v>5759.938886718171</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670531</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670451</v>
+        <v>5067.592601670458</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670429</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
+        <v>13058.45186476391</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13058.45186476389</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13058.45186476389</v>
+      </c>
+      <c r="M4" t="n">
         <v>13058.45186476392</v>
       </c>
-      <c r="K4" t="n">
-        <v>13058.45186476392</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13058.45186476396</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>13058.4518647639</v>
       </c>
-      <c r="N4" t="n">
-        <v>13058.45186476392</v>
-      </c>
       <c r="O4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>100905.9587784758</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727419.3785162972</v>
+        <v>-727847.4724546262</v>
       </c>
       <c r="C6" t="n">
         <v>-222345.4512513198</v>
@@ -26528,40 +26528,40 @@
         <v>-222345.4512513198</v>
       </c>
       <c r="E6" t="n">
-        <v>-982565.2600548322</v>
+        <v>-982601.4629085276</v>
       </c>
       <c r="F6" t="n">
-        <v>-53506.76506377714</v>
+        <v>-53541.50298921386</v>
       </c>
       <c r="G6" t="n">
-        <v>-45654.12744882799</v>
+        <v>-45688.86537426281</v>
       </c>
       <c r="H6" t="n">
-        <v>-45654.1274488271</v>
+        <v>-45688.86537426279</v>
       </c>
       <c r="I6" t="n">
-        <v>-45654.12744882709</v>
+        <v>-45688.86537426284</v>
       </c>
       <c r="J6" t="n">
-        <v>-250495.3721650829</v>
+        <v>-250495.3721650828</v>
       </c>
       <c r="K6" t="n">
         <v>-54644.43497885806</v>
       </c>
       <c r="L6" t="n">
-        <v>-54644.4349788581</v>
+        <v>-54644.43497885804</v>
       </c>
       <c r="M6" t="n">
-        <v>-178852.9456869165</v>
+        <v>-178852.9456869166</v>
       </c>
       <c r="N6" t="n">
         <v>-54644.43497885804</v>
       </c>
       <c r="O6" t="n">
-        <v>-74072.15297248986</v>
+        <v>-74072.15297248983</v>
       </c>
       <c r="P6" t="n">
-        <v>-54644.43497885803</v>
+        <v>-54644.43497885808</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26765,7 +26765,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625287011</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="G3" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>142.663450815485</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>142.6634508154874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>133.0239024883161</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>80.48689968569423</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>116.4149703298814</v>
       </c>
       <c r="W5" t="n">
-        <v>343.7814836083143</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.5311825185823</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>62.69861478456102</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>27.36385410590475</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>56.87267396708279</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>113.2240751126164</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>38.22219630222429</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28561,10 +28561,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348428</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135336</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.015579806723</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.544175081757</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162554</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175667</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159417</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.82044992365</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669218</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043723</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292899</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651526</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078742</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659447</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521098</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422581</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473067</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532649</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437237</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214693</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485287</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742434</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189901</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121568</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869269</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355175</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.751989058815</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392042</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106785</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920054</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417312</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532763</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099321</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.134554967246722</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N21" t="n">
-        <v>641.2555750770849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>510.8679233250717</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>556.7959610899863</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>454.5879800486408</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33746,7 +33746,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>641.2555750770852</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>301.6445156724565</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317085</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367764</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462681</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790294</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193509</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243153</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683871</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924723</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902401</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678992</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674326</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312466</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992793</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071391</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625072</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295322</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096347</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191312</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010448</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899071</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060451</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066247</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N21" t="n">
-        <v>509.9138629937516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>379.5262112417385</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>425.454249006653</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683839</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>311.9917356041963</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>509.9138629937518</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>159.048271228012</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
